--- a/src/main/webapp/demoFileDownload/studentImport_example.xlsx
+++ b/src/main/webapp/demoFileDownload/studentImport_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\自己项目\学生在线考试系统\EXCEL表格格式\导入表格模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fork contestsys\contestsys\src\main\webapp\demoFileDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C59851-EA6F-4AAB-B71D-050129EB6F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD6C10F-9186-4109-A067-7CEC69C49BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,8 +85,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>16软件一班</t>
+    <t>备注（可为空，不导入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号（不可为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（不可为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码（不可为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级（不可为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此行为样例，误删。请按照第一行的格式填写数据！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16软件1班</t>
     </r>
     <r>
       <rPr>
@@ -101,30 +125,6 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>备注（可为空，不导入）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学号（不可为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名（不可为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码（不可为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级（不可为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此行为样例，误删。请按照第一行的格式填写数据！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -181,10 +181,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -523,7 +525,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -531,29 +533,29 @@
     <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.08203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.4140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -564,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
